--- a/xlsx/a.xlsx
+++ b/xlsx/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6648" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="9852" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,79 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
-    <t>bool b</t>
+    <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float f</t>
+    <t>float id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string s</t>
+    <t>{float key, &lt;float a, float b, float[] c&gt; val} m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool[] bs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[] fs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[] ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"abc"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 1, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1.5, 1.5, 1.5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1.5, 1.5, 1.6]</t>
-  </si>
-  <si>
-    <t>[1.5, 1.5, 1.7]</t>
-  </si>
-  <si>
-    <t>[1.5, 1.5, 1.9]</t>
-  </si>
-  <si>
-    <t>["abc", "abc"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[&lt;1.5, 1&gt;, &lt;1.5, 1&gt;]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1.5, 1.5, 1.8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["ab
-c", "abc"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;float i, bool b&gt;[] ts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;float i, &lt;bool b&gt; b&gt; t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1.5, &lt;1&gt;&gt;</t>
+    <t>{1: &lt;1, 2, [1, 2, 3]&gt;, 2: &lt;1, 2, [1, 2, 3]&gt;}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,11 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,178 +380,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" customWidth="1"/>
-    <col min="8" max="8" width="52.77734375" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
+      <c r="B7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
